--- a/lessons/unit3/DAY3/books.xlsx
+++ b/lessons/unit3/DAY3/books.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c96f21750e87e78/Documents/GitHub/sergiguasch/lessons/unit3/DAY3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48280A08-160F-46E8-BF66-81E30FD4D472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{48280A08-160F-46E8-BF66-81E30FD4D472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29E4C7CA-4EFB-4EE8-80FC-A7033D6AC556}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD013F6C-98DA-4AFC-9B89-67E51210F1DB}"/>
+    <workbookView xWindow="3432" yWindow="5568" windowWidth="17280" windowHeight="8880" xr2:uid="{DD013F6C-98DA-4AFC-9B89-67E51210F1DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,15 +527,15 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.77734375" style="2" bestFit="1" customWidth="1"/>
@@ -549,10 +549,10 @@
         <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>16</v>
@@ -572,10 +572,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E2" s="4">
         <v>1605</v>
@@ -595,10 +595,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="E3" s="4">
         <v>1859</v>
@@ -618,10 +618,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="E4" s="4">
         <v>1954</v>
@@ -641,10 +641,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="E5" s="4">
         <v>1943</v>
@@ -664,10 +664,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="E6" s="4">
         <v>1937</v>
